--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjoshi/Documents/LendingClub/Quarterly_Loan_Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpers\Documents\Developer\S109\Final-Project\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F250F08-F8E3-4ABC-8BD3-797FB64EDDB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$E$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1197,11 +1198,86 @@
   <si>
     <t>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</t>
   </si>
+  <si>
+    <t>Useful Predictor</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Combine Fico Score</t>
+  </si>
+  <si>
+    <t>May interact with other debt and amount of income</t>
+  </si>
+  <si>
+    <t>This describes information that is unknown at time of issueance.</t>
+  </si>
+  <si>
+    <t>(May be joined to determine the number of previous loans)</t>
+  </si>
+  <si>
+    <t>Same info as zip, but less detailed</t>
+  </si>
+  <si>
+    <t>This will be our Y variable</t>
+  </si>
+  <si>
+    <t>Redundant with total payments</t>
+  </si>
+  <si>
+    <t>total_rev_hi_lim</t>
+  </si>
+  <si>
+    <t>This is not in all CSV files</t>
+  </si>
+  <si>
+    <t>revol_bal_joint</t>
+  </si>
+  <si>
+    <t>sec_app_fico_range_low</t>
+  </si>
+  <si>
+    <t>sec_app_fico_range_high</t>
+  </si>
+  <si>
+    <t>sec_app_earliest_cr_line</t>
+  </si>
+  <si>
+    <t>sec_app_inq_last_6mths</t>
+  </si>
+  <si>
+    <t>sec_app_mort_acc</t>
+  </si>
+  <si>
+    <t>sec_app_open_acc</t>
+  </si>
+  <si>
+    <t>sec_app_revol_util</t>
+  </si>
+  <si>
+    <t>sec_app_chargeoff_within_12_mths</t>
+  </si>
+  <si>
+    <t>sec_app_collections_12_mths_ex_med</t>
+  </si>
+  <si>
+    <t>sec_app_mths_since_last_major_derog</t>
+  </si>
+  <si>
+    <t>sec_app_num_rev_accts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1818,7 +1894,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1856,6 +1932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2250,1323 +2327,2301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145:B145"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="196.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="118.83203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="158.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="D8" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="D10" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="D15" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="D19" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="D21" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="D24" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="D25" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="D26" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="D27" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="D28" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="D29" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="24"/>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="D30" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="D31" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="D32" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="D34" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="D35" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="D36" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="D38" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="D39" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="D40" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="D41" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="D42" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="D43" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="D44" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="D45" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
+      <c r="D46" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" s="10"/>
       <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
+      <c r="D47" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11"/>
+      <c r="D48" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="D49" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="D50" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="D51" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="D52" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="D53" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="D54" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="D55" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="D56" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="D57" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="D58" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="D59" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="D60" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="D61" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="D62" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="D63" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="D64" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="D65" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="D66" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="D67" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="D68" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="D69" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="D70" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="D71" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="D72" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C73"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="D73" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="D74" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="D75" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="D76" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="D77" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="D78" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="D79" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="D80" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="D81" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="D82" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="D83" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="D84" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="D85" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="D86" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="D87" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+      <c r="D88" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="D89" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="D90" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="D91" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="D92" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+      <c r="D93" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="D94" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="D95" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="D96" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="D97" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="C98" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
+      <c r="D98" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="C99" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
+      <c r="D99" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="D100" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+      <c r="D101" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
+      <c r="D102" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>101</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="C103" s="9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+      <c r="D103" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>102</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+      <c r="D104" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>103</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="C105" s="9" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
+      <c r="D105" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>104</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="D106" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="D107" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+      <c r="D108" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+      <c r="D109" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+      <c r="D110" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
-        <v>217</v>
+      <c r="D111" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="D112" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="D113" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="D114" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="18" t="s">
+      <c r="D115" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>114</v>
+      </c>
+      <c r="B116" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="C116" s="18" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="18" t="s">
-        <v>310</v>
+      <c r="D116" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>115</v>
       </c>
       <c r="B117" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
-        <v>312</v>
+      <c r="D117" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>116</v>
       </c>
       <c r="B118" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>314</v>
+      <c r="D118" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>117</v>
       </c>
       <c r="B119" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="18" t="s">
-        <v>316</v>
+      <c r="D119" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E119" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>118</v>
       </c>
       <c r="B120" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
-        <v>318</v>
+      <c r="D120" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>119</v>
       </c>
       <c r="B121" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C121" s="18" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="18" t="s">
-        <v>320</v>
+      <c r="D121" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>120</v>
       </c>
       <c r="B122" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
-        <v>322</v>
+      <c r="D122" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>121</v>
       </c>
       <c r="B123" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C123" s="18" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="18" t="s">
-        <v>324</v>
+      <c r="D123" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>122</v>
       </c>
       <c r="B124" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="18" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
+      <c r="D124" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>123</v>
+      </c>
+      <c r="B125" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="C125" s="18" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="18" t="s">
-        <v>327</v>
+      <c r="D125" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>124</v>
       </c>
       <c r="B126" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C126" s="18" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="18" t="s">
-        <v>329</v>
+      <c r="D126" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>125</v>
       </c>
       <c r="B127" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="18" t="s">
-        <v>331</v>
+      <c r="D127" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>126</v>
       </c>
       <c r="B128" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C128" s="18" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="18" t="s">
-        <v>333</v>
+      <c r="D128" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>127</v>
       </c>
       <c r="B129" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C129" s="18" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
+      <c r="D129" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>128</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="C130" s="9" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
+      <c r="D130" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>129</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="C131" s="9" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
+      <c r="D131" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>130</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="C132" s="9" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
+      <c r="D132" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>131</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="C133" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
+      <c r="D133" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>132</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+      <c r="D134" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>133</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
+      <c r="D135" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>134</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="C136" s="9" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
+      <c r="D136" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>135</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="C137" s="9" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+      <c r="D137" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>136</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="C138" s="9" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="9" t="s">
+      <c r="D138" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>137</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
+      <c r="D139" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>138</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="C140" s="9" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="9" t="s">
+      <c r="D140" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>139</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="C141" s="9" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
+      <c r="D141" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>140</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="C142" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="9" t="s">
+      <c r="D142" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>141</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="C143" s="9" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
+      <c r="D143" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>142</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="C144" s="9" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
+      <c r="D144" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>143</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="C145" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
+      <c r="D145" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>144</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="C146" s="9" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
+      <c r="D146" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>145</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
+      <c r="D147" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>146</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
+      <c r="D148" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>147</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
+      <c r="D149" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>148</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="C150" s="9" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+      <c r="D150" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>149</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
+      <c r="D151" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>150</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="C152" s="9" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="13" t="s">
+      <c r="D152" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>152</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B129"/>
-  <sortState ref="A2:B101">
-    <sortCondition ref="A2:A101"/>
+  <autoFilter ref="A1:E154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}"/>
+  <sortState ref="B2:C101">
+    <sortCondition ref="B2:B101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" verticalDpi="0"/>
@@ -3574,22 +4629,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>219</v>
       </c>
@@ -3597,7 +4652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
@@ -3608,7 +4663,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -3619,7 +4674,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
@@ -3630,7 +4685,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>190</v>
       </c>
@@ -3641,7 +4696,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>285</v>
       </c>
@@ -3649,7 +4704,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -3659,7 +4714,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -3668,7 +4723,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
@@ -3678,7 +4733,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
@@ -3689,7 +4744,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
@@ -3700,7 +4755,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
@@ -3710,7 +4765,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
@@ -3720,7 +4775,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>106</v>
       </c>
@@ -3731,7 +4786,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
@@ -3742,7 +4797,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>196</v>
       </c>
@@ -3753,7 +4808,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -3764,7 +4819,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -3775,7 +4830,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3784,7 +4839,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
@@ -3795,7 +4850,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
@@ -3805,7 +4860,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>239</v>
       </c>
@@ -3816,7 +4871,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
@@ -3827,7 +4882,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -3838,7 +4893,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
@@ -3849,7 +4904,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>173</v>
       </c>
@@ -3860,7 +4915,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
@@ -3871,7 +4926,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
@@ -3882,7 +4937,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
@@ -3893,7 +4948,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -3904,7 +4959,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>179</v>
       </c>
@@ -3915,7 +4970,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +4980,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>277</v>
       </c>
@@ -3935,7 +4990,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -3946,7 +5001,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
@@ -3957,7 +5012,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>287</v>
       </c>
@@ -3968,7 +5023,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>289</v>
       </c>
@@ -3979,7 +5034,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>201</v>
       </c>
@@ -3990,7 +5045,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -4001,7 +5056,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -4012,7 +5067,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -4022,7 +5077,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -4032,7 +5087,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
@@ -4042,7 +5097,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>283</v>
       </c>
@@ -4052,7 +5107,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
@@ -4062,7 +5117,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>124</v>
       </c>
@@ -4073,7 +5128,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
@@ -4083,7 +5138,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
@@ -4093,7 +5148,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>208</v>
       </c>
@@ -4103,7 +5158,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
@@ -4113,7 +5168,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -4123,7 +5178,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4133,7 +5188,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>273</v>
       </c>
@@ -4142,7 +5197,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
@@ -4151,7 +5206,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>203</v>
       </c>
@@ -4160,7 +5215,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>204</v>
       </c>
@@ -4169,7 +5224,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>207</v>
       </c>
@@ -4178,7 +5233,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>205</v>
       </c>
@@ -4187,7 +5242,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
@@ -4196,7 +5251,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
@@ -4205,7 +5260,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -4214,7 +5269,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
@@ -4223,7 +5278,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -4232,7 +5287,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>115</v>
       </c>
@@ -4241,7 +5296,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -4250,7 +5305,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>127</v>
       </c>
@@ -4259,7 +5314,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +5323,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
@@ -4277,7 +5332,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
@@ -4286,7 +5341,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -4296,7 +5351,7 @@
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -4305,7 +5360,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
@@ -4314,7 +5369,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>110</v>
       </c>
@@ -4324,7 +5379,7 @@
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>266</v>
       </c>
@@ -4334,7 +5389,7 @@
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>269</v>
       </c>
@@ -4344,7 +5399,7 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>271</v>
       </c>
@@ -4353,7 +5408,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>335</v>
       </c>
@@ -4362,7 +5417,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>279</v>
       </c>
@@ -4372,7 +5427,7 @@
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>281</v>
       </c>
@@ -4382,7 +5437,7 @@
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
@@ -4391,7 +5446,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -4401,7 +5456,7 @@
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
@@ -4411,7 +5466,7 @@
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>103</v>
       </c>
@@ -4420,7 +5475,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
@@ -4429,7 +5484,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
@@ -4438,7 +5493,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>189</v>
       </c>
@@ -4447,7 +5502,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>188</v>
       </c>
@@ -4456,7 +5511,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>212</v>
       </c>
@@ -4465,7 +5520,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
@@ -4474,7 +5529,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>174</v>
       </c>
@@ -4483,7 +5538,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>176</v>
       </c>
@@ -4493,7 +5548,7 @@
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
@@ -4502,7 +5557,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
@@ -4512,7 +5567,7 @@
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>19</v>
       </c>
@@ -4520,7 +5575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
@@ -4528,7 +5583,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>113</v>
       </c>
@@ -4536,7 +5591,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>112</v>
       </c>
@@ -4544,7 +5599,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>275</v>
       </c>
@@ -4552,7 +5607,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>293</v>
       </c>
@@ -4560,7 +5615,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>100</v>
       </c>
@@ -4568,7 +5623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>217</v>
       </c>
@@ -4576,7 +5631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>215</v>
       </c>
@@ -4584,7 +5639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
@@ -4592,7 +5647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>214</v>
       </c>
@@ -4600,7 +5655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
@@ -4608,7 +5663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>257</v>
       </c>
@@ -4616,7 +5671,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>247</v>
       </c>
@@ -4624,7 +5679,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>310</v>
       </c>
@@ -4632,7 +5687,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>312</v>
       </c>
@@ -4640,7 +5695,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>314</v>
       </c>
@@ -4648,7 +5703,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>316</v>
       </c>
@@ -4656,7 +5711,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>318</v>
       </c>
@@ -4664,7 +5719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>320</v>
       </c>
@@ -4672,7 +5727,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>322</v>
       </c>
@@ -4680,7 +5735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>324</v>
       </c>
@@ -4688,7 +5743,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>336</v>
       </c>
@@ -4696,7 +5751,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>327</v>
       </c>
@@ -4704,7 +5759,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>329</v>
       </c>
@@ -4712,7 +5767,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>331</v>
       </c>
@@ -4720,7 +5775,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>333</v>
       </c>
@@ -4728,7 +5783,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>362</v>
       </c>
@@ -4736,13 +5791,13 @@
         <v>382</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B89">
+  <autoFilter ref="A1:B89" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A2:B107">
       <sortCondition ref="A1:A107"/>
     </sortState>
@@ -4756,20 +5811,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="225.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="225.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
@@ -4777,7 +5832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -4785,7 +5840,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
@@ -4793,7 +5848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
@@ -4801,7 +5856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -4809,7 +5864,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>231</v>
       </c>
@@ -4817,7 +5872,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>245</v>
       </c>
@@ -4825,7 +5880,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>232</v>
       </c>
@@ -4833,7 +5888,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>233</v>
       </c>
@@ -4841,7 +5896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>234</v>
       </c>
@@ -4849,16 +5904,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10"/>
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpers\Documents\Developer\S109\Final-Project\Source Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlemac/Documents/S109/Final-Project/Source Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F250F08-F8E3-4ABC-8BD3-797FB64EDDB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D941714-29D4-164E-A5BB-DAFCB697FDCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="407">
   <si>
     <t>id</t>
   </si>
@@ -1218,9 +1218,6 @@
   </si>
   <si>
     <t>This describes information that is unknown at time of issueance.</t>
-  </si>
-  <si>
-    <t>(May be joined to determine the number of previous loans)</t>
   </si>
   <si>
     <t>Same info as zip, but less detailed</t>
@@ -2333,21 +2330,21 @@
   </sheetPr>
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118:D152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="158.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="158.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
@@ -2361,7 +2358,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2406,10 +2403,10 @@
         <v>385</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2424,7 +2421,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2438,7 +2435,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2449,10 +2446,10 @@
         <v>265</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2483,7 +2480,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2497,7 +2494,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2528,7 +2525,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2542,7 +2539,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2615,7 +2612,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2626,10 +2623,10 @@
         <v>256</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2643,7 +2640,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2657,7 +2654,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2671,7 +2668,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2716,7 +2713,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2744,7 +2741,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2758,7 +2755,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2876,7 +2873,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2892,7 +2889,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2957,7 +2954,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -2974,7 +2971,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -2989,7 +2986,7 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3034,16 +3031,14 @@
         <v>67</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>390</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E46" s="25"/>
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3061,7 +3056,7 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3079,7 +3074,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3094,7 +3089,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -3109,7 +3104,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -3124,7 +3119,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3139,7 +3134,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3154,7 +3149,7 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3169,7 +3164,7 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3184,7 +3179,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3199,7 +3194,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3214,7 +3209,7 @@
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3229,7 +3224,7 @@
       </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3244,7 +3239,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3259,7 +3254,7 @@
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3274,7 +3269,7 @@
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3291,7 +3286,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3308,7 +3303,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3322,7 +3317,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3336,7 +3331,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3350,7 +3345,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -3364,7 +3359,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -3378,7 +3373,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -3406,7 +3401,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -3423,7 +3418,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -3455,7 +3450,7 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -3469,7 +3464,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3483,7 +3478,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3497,7 +3492,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3511,7 +3506,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -3525,7 +3520,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -3542,7 +3537,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -3556,7 +3551,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3570,7 +3565,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3584,7 +3579,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3598,7 +3593,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3612,7 +3607,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3626,7 +3621,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3640,7 +3635,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3654,7 +3649,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3668,7 +3663,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3682,7 +3677,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3696,7 +3691,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -3710,7 +3705,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -3724,7 +3719,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -3738,7 +3733,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -3752,7 +3747,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -3766,7 +3761,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -3780,7 +3775,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -3794,7 +3789,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -3808,7 +3803,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -3825,7 +3820,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -3839,7 +3834,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -3856,7 +3851,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -3870,7 +3865,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -3887,7 +3882,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -3901,7 +3896,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -3929,7 +3924,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -3943,10 +3938,10 @@
         <v>384</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -3960,10 +3955,10 @@
         <v>385</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -3977,10 +3972,10 @@
         <v>385</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -3994,10 +3989,10 @@
         <v>385</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -4011,15 +4006,15 @@
         <v>385</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>158</v>
@@ -4029,7 +4024,7 @@
       </c>
       <c r="E112" s="10"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -4044,7 +4039,7 @@
       </c>
       <c r="E113" s="10"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -4058,7 +4053,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -4072,10 +4067,10 @@
         <v>385</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -4086,119 +4081,115 @@
         <v>246</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>115</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>311</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>116</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E118" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>117</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>315</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E119" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>118</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>119</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>120</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>321</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>121</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>122</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>325</v>
@@ -4206,11 +4197,9 @@
       <c r="D124" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E124" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -4223,67 +4212,65 @@
       <c r="D125" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E125" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="25"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>124</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>328</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>125</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>126</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>127</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>334</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -4297,7 +4284,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -4311,7 +4298,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -4325,7 +4312,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -4339,7 +4326,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -4353,7 +4340,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -4367,7 +4354,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -4381,7 +4368,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -4395,7 +4382,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -4409,7 +4396,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -4423,7 +4410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -4437,7 +4424,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -4451,7 +4438,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -4465,7 +4452,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -4479,7 +4466,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -4493,7 +4480,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -4507,7 +4494,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -4521,7 +4508,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -4535,7 +4522,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -4549,7 +4536,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -4563,7 +4550,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -4577,7 +4564,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -4591,7 +4578,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -4605,12 +4592,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -4637,14 +4624,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="235.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="235.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>219</v>
       </c>
@@ -4652,7 +4639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
@@ -4663,7 +4650,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -4674,7 +4661,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
@@ -4685,7 +4672,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>190</v>
       </c>
@@ -4696,7 +4683,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>285</v>
       </c>
@@ -4704,7 +4691,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -4714,7 +4701,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -4723,7 +4710,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
@@ -4733,7 +4720,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
@@ -4744,7 +4731,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
@@ -4755,7 +4742,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
@@ -4765,7 +4752,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
@@ -4775,7 +4762,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>106</v>
       </c>
@@ -4786,7 +4773,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
@@ -4797,7 +4784,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>196</v>
       </c>
@@ -4808,7 +4795,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -4819,7 +4806,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -4830,7 +4817,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -4839,7 +4826,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
@@ -4850,7 +4837,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
@@ -4860,7 +4847,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>239</v>
       </c>
@@ -4871,7 +4858,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
@@ -4882,7 +4869,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -4893,7 +4880,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
@@ -4904,7 +4891,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>173</v>
       </c>
@@ -4915,7 +4902,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
@@ -4926,7 +4913,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
@@ -4937,7 +4924,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
@@ -4948,7 +4935,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -4959,7 +4946,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>179</v>
       </c>
@@ -4970,7 +4957,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4967,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>277</v>
       </c>
@@ -4990,7 +4977,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -5001,7 +4988,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
@@ -5012,7 +4999,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>287</v>
       </c>
@@ -5023,7 +5010,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>289</v>
       </c>
@@ -5034,7 +5021,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>201</v>
       </c>
@@ -5045,7 +5032,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5043,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -5067,7 +5054,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5077,7 +5064,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -5087,7 +5074,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
@@ -5097,7 +5084,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>283</v>
       </c>
@@ -5107,7 +5094,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
@@ -5117,7 +5104,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>124</v>
       </c>
@@ -5128,7 +5115,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
@@ -5138,7 +5125,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
@@ -5148,7 +5135,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>208</v>
       </c>
@@ -5158,7 +5145,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
@@ -5168,7 +5155,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -5178,7 +5165,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
@@ -5188,7 +5175,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>273</v>
       </c>
@@ -5197,7 +5184,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
@@ -5206,7 +5193,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>203</v>
       </c>
@@ -5215,7 +5202,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>204</v>
       </c>
@@ -5224,7 +5211,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>207</v>
       </c>
@@ -5233,7 +5220,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>205</v>
       </c>
@@ -5242,7 +5229,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
@@ -5251,7 +5238,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
@@ -5260,7 +5247,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -5269,7 +5256,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
@@ -5278,7 +5265,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -5287,7 +5274,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>115</v>
       </c>
@@ -5296,7 +5283,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -5305,7 +5292,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>127</v>
       </c>
@@ -5314,7 +5301,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
@@ -5323,7 +5310,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
@@ -5332,7 +5319,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
@@ -5341,7 +5328,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -5351,7 +5338,7 @@
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -5360,7 +5347,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
@@ -5369,7 +5356,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>110</v>
       </c>
@@ -5379,7 +5366,7 @@
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>266</v>
       </c>
@@ -5389,7 +5376,7 @@
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>269</v>
       </c>
@@ -5399,7 +5386,7 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>271</v>
       </c>
@@ -5408,7 +5395,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>335</v>
       </c>
@@ -5417,7 +5404,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>279</v>
       </c>
@@ -5427,7 +5414,7 @@
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>281</v>
       </c>
@@ -5437,7 +5424,7 @@
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
@@ -5446,7 +5433,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -5456,7 +5443,7 @@
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
@@ -5466,7 +5453,7 @@
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>103</v>
       </c>
@@ -5475,7 +5462,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
@@ -5484,7 +5471,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
@@ -5493,7 +5480,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>189</v>
       </c>
@@ -5502,7 +5489,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>188</v>
       </c>
@@ -5511,7 +5498,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>212</v>
       </c>
@@ -5520,7 +5507,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
@@ -5529,7 +5516,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>174</v>
       </c>
@@ -5538,7 +5525,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>176</v>
       </c>
@@ -5548,7 +5535,7 @@
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
@@ -5557,7 +5544,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
@@ -5567,7 +5554,7 @@
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>19</v>
       </c>
@@ -5575,7 +5562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
@@ -5583,7 +5570,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>113</v>
       </c>
@@ -5591,7 +5578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>112</v>
       </c>
@@ -5599,7 +5586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>275</v>
       </c>
@@ -5607,7 +5594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>293</v>
       </c>
@@ -5615,7 +5602,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>100</v>
       </c>
@@ -5623,7 +5610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>217</v>
       </c>
@@ -5631,7 +5618,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>215</v>
       </c>
@@ -5639,7 +5626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
@@ -5647,7 +5634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>214</v>
       </c>
@@ -5655,7 +5642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
@@ -5663,7 +5650,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>257</v>
       </c>
@@ -5671,7 +5658,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="22" t="s">
         <v>247</v>
       </c>
@@ -5679,7 +5666,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>310</v>
       </c>
@@ -5687,7 +5674,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>312</v>
       </c>
@@ -5695,7 +5682,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>314</v>
       </c>
@@ -5703,7 +5690,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>316</v>
       </c>
@@ -5711,7 +5698,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>318</v>
       </c>
@@ -5719,7 +5706,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>320</v>
       </c>
@@ -5727,7 +5714,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>322</v>
       </c>
@@ -5735,7 +5722,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>324</v>
       </c>
@@ -5743,7 +5730,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>336</v>
       </c>
@@ -5751,7 +5738,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>327</v>
       </c>
@@ -5759,7 +5746,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>329</v>
       </c>
@@ -5767,7 +5754,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>331</v>
       </c>
@@ -5775,7 +5762,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>333</v>
       </c>
@@ -5783,7 +5770,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>362</v>
       </c>
@@ -5791,7 +5778,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B123" s="13" t="s">
         <v>168</v>
       </c>
@@ -5818,13 +5805,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="225.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="225.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
@@ -5832,7 +5819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -5840,7 +5827,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
@@ -5848,7 +5835,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
@@ -5856,7 +5843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -5864,7 +5851,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>231</v>
       </c>
@@ -5872,7 +5859,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>245</v>
       </c>
@@ -5880,7 +5867,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>232</v>
       </c>
@@ -5888,7 +5875,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>233</v>
       </c>
@@ -5896,7 +5883,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>234</v>
       </c>
@@ -5904,11 +5891,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
     </row>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlemac/Documents/S109/Final-Project/Source Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D941714-29D4-164E-A5BB-DAFCB697FDCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B48F10-71C9-4442-9F4E-4F112B75D40C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,9 +2330,9 @@
   </sheetPr>
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118:D152"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlemac/Documents/S109/Final-Project/Source Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pareddy/pavio/Personal Documents/courses/cs109a/Final-Project/Source Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B48F10-71C9-4442-9F4E-4F112B75D40C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B659BFCF-175C-AA49-9AC8-98BCD6D0A726}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$E$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$F$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>sec_app_num_rev_accts</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
   </si>
 </sst>
 </file>
@@ -2328,23 +2331,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
-    <col min="3" max="3" width="158.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
@@ -2354,11 +2357,14 @@
       <c r="D1" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2371,11 +2377,12 @@
       <c r="D2" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2388,8 +2395,9 @@
       <c r="D3" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2403,10 +2411,13 @@
         <v>385</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2419,9 +2430,9 @@
       <c r="D5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2434,8 +2445,11 @@
       <c r="D6" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2446,10 +2460,11 @@
         <v>265</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2462,8 +2477,9 @@
       <c r="D8" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2476,11 +2492,12 @@
       <c r="D9" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2493,8 +2510,9 @@
       <c r="D10" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2507,11 +2525,12 @@
       <c r="D11" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2524,8 +2543,9 @@
       <c r="D12" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2538,8 +2558,9 @@
       <c r="D13" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2552,8 +2573,9 @@
       <c r="D14" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2566,8 +2588,11 @@
       <c r="D15" s="24" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2580,11 +2605,12 @@
       <c r="D16" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2597,8 +2623,11 @@
       <c r="D17" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2611,8 +2640,11 @@
       <c r="D18" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2623,10 +2655,11 @@
         <v>256</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2637,10 +2670,13 @@
         <v>249</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2653,8 +2689,11 @@
       <c r="D21" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2665,10 +2704,13 @@
         <v>167</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2681,11 +2723,12 @@
       <c r="D23" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2698,8 +2741,9 @@
       <c r="D24" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2712,8 +2756,9 @@
       <c r="D25" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2726,8 +2771,9 @@
       <c r="D26" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2738,10 +2784,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2754,8 +2803,11 @@
       <c r="D28" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2768,8 +2820,11 @@
       <c r="D29" s="24" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2782,11 +2837,12 @@
       <c r="D30" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2799,8 +2855,9 @@
       <c r="D31" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2813,8 +2870,11 @@
       <c r="D32" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2827,8 +2887,9 @@
       <c r="D33" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2841,8 +2902,11 @@
       <c r="D34" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2856,10 +2920,13 @@
         <v>384</v>
       </c>
       <c r="E35" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2872,8 +2939,11 @@
       <c r="D36" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2884,12 +2954,13 @@
         <v>248</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2902,8 +2973,9 @@
       <c r="D38" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2916,11 +2988,12 @@
       <c r="D39" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -2933,11 +3006,12 @@
       <c r="D40" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2950,11 +3024,12 @@
       <c r="D41" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -2967,11 +3042,12 @@
       <c r="D42" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -2984,9 +3060,12 @@
       <c r="D43" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E43" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -2999,11 +3078,14 @@
       <c r="D44" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3016,11 +3098,11 @@
       <c r="D45" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="F45" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3033,12 +3115,13 @@
       <c r="D46" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="11"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="25"/>
+      <c r="K46" s="10"/>
       <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3051,12 +3134,13 @@
       <c r="D47" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="11"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3069,12 +3153,13 @@
       <c r="D48" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="11"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="K48" s="12"/>
       <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3087,9 +3172,10 @@
       <c r="D49" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -3102,9 +3188,10 @@
       <c r="D50" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -3117,9 +3204,10 @@
       <c r="D51" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3132,9 +3220,12 @@
       <c r="D52" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3147,9 +3238,12 @@
       <c r="D53" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3162,9 +3256,12 @@
       <c r="D54" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3177,9 +3274,10 @@
       <c r="D55" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3192,9 +3290,10 @@
       <c r="D56" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3207,9 +3306,10 @@
       <c r="D57" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3222,9 +3322,10 @@
       <c r="D58" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3237,9 +3338,10 @@
       <c r="D59" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3252,9 +3354,10 @@
       <c r="D60" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="5"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3267,9 +3370,10 @@
       <c r="D61" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3282,11 +3386,11 @@
       <c r="D62" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="F62" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3299,11 +3403,11 @@
       <c r="D63" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="F63" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3316,8 +3420,9 @@
       <c r="D64" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3330,8 +3435,9 @@
       <c r="D65" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3344,8 +3450,9 @@
       <c r="D66" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -3358,8 +3465,9 @@
       <c r="D67" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -3372,8 +3480,9 @@
       <c r="D68" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -3386,8 +3495,9 @@
       <c r="D69" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -3400,8 +3510,9 @@
       <c r="D70" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -3414,11 +3525,11 @@
       <c r="D71" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="F71" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -3431,11 +3542,11 @@
       <c r="D72" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="F72" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -3448,9 +3559,10 @@
       <c r="D73" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E73" s="5"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -3463,8 +3575,9 @@
       <c r="D74" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3477,8 +3590,11 @@
       <c r="D75" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3491,8 +3607,9 @@
       <c r="D76" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3505,8 +3622,9 @@
       <c r="D77" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -3519,8 +3637,9 @@
       <c r="D78" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -3533,11 +3652,11 @@
       <c r="D79" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="F79" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -3550,8 +3669,9 @@
       <c r="D80" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3564,8 +3684,9 @@
       <c r="D81" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3578,8 +3699,9 @@
       <c r="D82" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3592,8 +3714,9 @@
       <c r="D83" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3606,8 +3729,9 @@
       <c r="D84" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3620,8 +3744,9 @@
       <c r="D85" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3634,8 +3759,9 @@
       <c r="D86" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3648,8 +3774,11 @@
       <c r="D87" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3662,8 +3791,9 @@
       <c r="D88" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3674,10 +3804,13 @@
         <v>237</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3690,8 +3823,11 @@
       <c r="D90" s="6" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -3705,7 +3841,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -3718,8 +3854,11 @@
       <c r="D92" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -3732,8 +3871,11 @@
       <c r="D93" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -3746,8 +3888,11 @@
       <c r="D94" s="6" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -3761,7 +3906,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -3774,8 +3919,11 @@
       <c r="D96" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -3788,8 +3936,11 @@
       <c r="D97" s="6" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -3803,7 +3954,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -3816,11 +3967,11 @@
       <c r="D99" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E99" s="25" t="s">
+      <c r="F99" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -3834,7 +3985,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -3847,11 +3998,14 @@
       <c r="D101" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E101" s="25" t="s">
+      <c r="E101" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F101" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -3865,7 +4019,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -3878,11 +4032,11 @@
       <c r="D103" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E103" s="25" t="s">
+      <c r="F103" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -3896,7 +4050,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -3910,7 +4064,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -3924,7 +4078,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -3937,11 +4091,11 @@
       <c r="D107" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="F107" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -3954,11 +4108,11 @@
       <c r="D108" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="F108" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -3971,11 +4125,11 @@
       <c r="D109" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="F109" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -3988,11 +4142,11 @@
       <c r="D110" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="F110" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -4005,11 +4159,11 @@
       <c r="D111" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="F111" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -4022,9 +4176,9 @@
       <c r="D112" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="10"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -4037,9 +4191,12 @@
       <c r="D113" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E113" s="10"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E113" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -4052,8 +4209,11 @@
       <c r="D114" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E114" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -4066,11 +4226,11 @@
       <c r="D115" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="F115" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -4083,8 +4243,11 @@
       <c r="D116" s="6" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -4098,7 +4261,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -4111,9 +4274,9 @@
       <c r="D118" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E118" s="10"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -4126,9 +4289,9 @@
       <c r="D119" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E119" s="10"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -4142,7 +4305,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -4156,7 +4319,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -4170,7 +4333,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -4184,7 +4347,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -4197,9 +4360,9 @@
       <c r="D124" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E124" s="25"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="25"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -4212,9 +4375,9 @@
       <c r="D125" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E125" s="25"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="25"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -4228,7 +4391,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -4242,7 +4405,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -4606,7 +4769,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}"/>
+  <autoFilter ref="A1:F154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}"/>
   <sortState ref="B2:C101">
     <sortCondition ref="B2:B101"/>
   </sortState>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pareddy/pavio/Personal Documents/courses/cs109a/Final-Project/Source Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B659BFCF-175C-AA49-9AC8-98BCD6D0A726}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F003DC1-6F63-DE4E-8584-B5D8CEAAB372}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$F$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$G$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="409">
   <si>
     <t>id</t>
   </si>
@@ -1272,6 +1272,9 @@
   </si>
   <si>
     <t>Kaggle</t>
+  </si>
+  <si>
+    <t>Known Before</t>
   </si>
 </sst>
 </file>
@@ -2331,11 +2334,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2343,11 +2346,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="82.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
@@ -2360,11 +2363,14 @@
       <c r="E1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2378,11 +2384,12 @@
         <v>385</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2396,8 +2403,9 @@
         <v>384</v>
       </c>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2413,11 +2421,12 @@
       <c r="E4" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2430,9 +2439,9 @@
       <c r="D5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2448,8 +2457,9 @@
       <c r="E6" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2463,8 +2473,9 @@
         <v>384</v>
       </c>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2478,8 +2489,9 @@
         <v>384</v>
       </c>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2493,11 +2505,12 @@
         <v>385</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2511,8 +2524,9 @@
         <v>384</v>
       </c>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2526,11 +2540,12 @@
         <v>385</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2544,8 +2559,9 @@
         <v>384</v>
       </c>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2559,8 +2575,9 @@
         <v>384</v>
       </c>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2574,8 +2591,9 @@
         <v>384</v>
       </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2591,8 +2609,9 @@
       <c r="E15" s="13" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2606,11 +2625,12 @@
         <v>385</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2626,8 +2646,9 @@
       <c r="E17" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2643,8 +2664,9 @@
       <c r="E18" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2658,8 +2680,9 @@
         <v>384</v>
       </c>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2670,13 +2693,14 @@
         <v>249</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2692,8 +2716,9 @@
       <c r="E21" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2709,8 +2734,9 @@
       <c r="E22" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2724,11 +2750,12 @@
         <v>384</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2742,8 +2769,9 @@
         <v>384</v>
       </c>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2757,8 +2785,9 @@
         <v>385</v>
       </c>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2772,8 +2801,9 @@
         <v>385</v>
       </c>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2789,8 +2819,9 @@
       <c r="E27" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2806,8 +2837,9 @@
       <c r="E28" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2823,8 +2855,9 @@
       <c r="E29" s="13" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2838,11 +2871,12 @@
         <v>385</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2856,8 +2890,9 @@
         <v>385</v>
       </c>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2873,8 +2908,9 @@
       <c r="E32" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2888,8 +2924,9 @@
         <v>384</v>
       </c>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2905,8 +2942,9 @@
       <c r="E34" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2922,11 +2960,12 @@
       <c r="E35" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2942,8 +2981,9 @@
       <c r="E36" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2957,10 +2997,11 @@
         <v>384</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="5"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2974,8 +3015,9 @@
         <v>385</v>
       </c>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2989,11 +3031,12 @@
         <v>385</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -3007,11 +3050,12 @@
         <v>385</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -3025,11 +3069,12 @@
         <v>385</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -3043,11 +3088,12 @@
         <v>385</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -3063,9 +3109,10 @@
       <c r="E43" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F43" s="25"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -3081,11 +3128,12 @@
       <c r="E44" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3098,11 +3146,11 @@
       <c r="D45" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="G45" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3116,12 +3164,13 @@
         <v>385</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="25"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="25"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3135,12 +3184,13 @@
         <v>384</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3154,12 +3204,13 @@
         <v>384</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="11"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4"/>
+      <c r="L48" s="12"/>
       <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3173,9 +3224,10 @@
         <v>384</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="5"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -3189,9 +3241,10 @@
         <v>384</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="5"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -3205,9 +3258,10 @@
         <v>384</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="5"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3223,9 +3277,10 @@
       <c r="E52" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="25"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3241,9 +3296,10 @@
       <c r="E53" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="25"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3259,9 +3315,10 @@
       <c r="E54" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="25"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3275,9 +3332,10 @@
         <v>384</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3291,9 +3349,10 @@
         <v>384</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="5"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3307,9 +3366,10 @@
         <v>384</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="5"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3323,9 +3383,10 @@
         <v>384</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="5"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3339,9 +3400,10 @@
         <v>384</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="5"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3355,9 +3417,10 @@
         <v>385</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="5"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3371,9 +3434,10 @@
         <v>384</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="5"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3386,11 +3450,11 @@
       <c r="D62" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="G62" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3403,11 +3467,11 @@
       <c r="D63" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="G63" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3421,8 +3485,9 @@
         <v>384</v>
       </c>
       <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3436,8 +3501,9 @@
         <v>384</v>
       </c>
       <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3451,8 +3517,9 @@
         <v>384</v>
       </c>
       <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -3466,8 +3533,9 @@
         <v>384</v>
       </c>
       <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -3481,8 +3549,9 @@
         <v>384</v>
       </c>
       <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -3496,8 +3565,9 @@
         <v>384</v>
       </c>
       <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -3511,8 +3581,9 @@
         <v>384</v>
       </c>
       <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -3525,11 +3596,11 @@
       <c r="D71" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="G71" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -3542,11 +3613,11 @@
       <c r="D72" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="G72" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -3560,9 +3631,10 @@
         <v>384</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F73" s="5"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -3576,8 +3648,9 @@
         <v>384</v>
       </c>
       <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3593,8 +3666,9 @@
       <c r="E75" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F75" s="25"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3608,8 +3682,9 @@
         <v>384</v>
       </c>
       <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3623,8 +3698,9 @@
         <v>384</v>
       </c>
       <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -3638,8 +3714,9 @@
         <v>384</v>
       </c>
       <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -3652,11 +3729,11 @@
       <c r="D79" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="G79" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -3670,8 +3747,9 @@
         <v>384</v>
       </c>
       <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3685,8 +3763,9 @@
         <v>384</v>
       </c>
       <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3700,8 +3779,9 @@
         <v>384</v>
       </c>
       <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3715,8 +3795,9 @@
         <v>384</v>
       </c>
       <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3730,8 +3811,9 @@
         <v>384</v>
       </c>
       <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3745,8 +3827,9 @@
         <v>384</v>
       </c>
       <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3760,8 +3843,9 @@
         <v>385</v>
       </c>
       <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3777,8 +3861,9 @@
       <c r="E87" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3792,8 +3877,9 @@
         <v>384</v>
       </c>
       <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3809,8 +3895,9 @@
       <c r="E89" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3826,8 +3913,9 @@
       <c r="E90" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -3841,7 +3929,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -3857,8 +3945,9 @@
       <c r="E92" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -3874,8 +3963,9 @@
       <c r="E93" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -3891,8 +3981,9 @@
       <c r="E94" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -3906,7 +3997,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -3922,8 +4013,9 @@
       <c r="E96" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -3939,8 +4031,9 @@
       <c r="E97" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -3954,7 +4047,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -3967,11 +4060,11 @@
       <c r="D99" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="G99" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -3985,7 +4078,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -4001,11 +4094,12 @@
       <c r="E101" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="10"/>
+      <c r="G101" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -4019,7 +4113,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -4032,11 +4126,11 @@
       <c r="D103" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="G103" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -4050,7 +4144,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -4064,7 +4158,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -4078,7 +4172,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -4091,11 +4185,11 @@
       <c r="D107" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="G107" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -4108,11 +4202,11 @@
       <c r="D108" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="G108" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -4125,11 +4219,11 @@
       <c r="D109" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="G109" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -4142,11 +4236,11 @@
       <c r="D110" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="G110" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -4159,11 +4253,11 @@
       <c r="D111" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="G111" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -4176,9 +4270,9 @@
       <c r="D112" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -4195,8 +4289,9 @@
         <v>384</v>
       </c>
       <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -4212,8 +4307,9 @@
       <c r="E114" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -4226,11 +4322,11 @@
       <c r="D115" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="G115" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -4246,8 +4342,9 @@
       <c r="E116" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -4261,7 +4358,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -4274,9 +4371,9 @@
       <c r="D118" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F118" s="10"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -4289,9 +4386,9 @@
       <c r="D119" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -4305,7 +4402,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -4319,7 +4416,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -4333,7 +4430,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -4347,7 +4444,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -4360,9 +4457,9 @@
       <c r="D124" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F124" s="25"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="25"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -4375,9 +4472,9 @@
       <c r="D125" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F125" s="25"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="25"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -4391,7 +4488,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -4405,7 +4502,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -4769,7 +4866,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}"/>
+  <autoFilter ref="A1:G154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}"/>
   <sortState ref="B2:C101">
     <sortCondition ref="B2:B101"/>
   </sortState>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pareddy/pavio/Personal Documents/courses/cs109a/Final-Project/Source Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpers\Documents\Developer\S109\Final-Project\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F003DC1-6F63-DE4E-8584-B5D8CEAAB372}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA566BEF-1E3B-4453-B12A-D4A74BDBD14B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="33525" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$G$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="410">
   <si>
     <t>id</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>Known Before</t>
+  </si>
+  <si>
+    <t>No - Not available at origination</t>
   </si>
 </sst>
 </file>
@@ -2331,26 +2334,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" customWidth="1"/>
-    <col min="4" max="6" width="11.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" style="6" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2405,7 +2408,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2441,7 +2444,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2459,7 +2462,7 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2475,7 +2478,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2526,7 +2529,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2561,7 +2564,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2572,12 +2575,12 @@
         <v>224</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2593,7 +2596,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2611,7 +2614,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2648,7 +2651,7 @@
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2666,7 +2669,7 @@
       </c>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2682,7 +2685,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2700,7 +2703,7 @@
       </c>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2787,7 +2790,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2803,7 +2806,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2821,7 +2824,7 @@
       </c>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2839,7 +2842,7 @@
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2857,7 +2860,7 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2910,7 +2913,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2944,7 +2947,7 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2983,7 +2986,7 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -3001,7 +3004,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -3017,7 +3020,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -3112,7 +3115,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3170,7 +3173,7 @@
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3190,7 +3193,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3210,7 +3213,7 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -3244,7 +3247,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -3261,7 +3264,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3280,7 +3283,7 @@
       <c r="F52" s="25"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="F53" s="25"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3318,7 +3321,7 @@
       <c r="F54" s="25"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3335,7 +3338,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3352,7 +3355,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3369,7 +3372,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3386,7 +3389,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3403,7 +3406,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3420,7 +3423,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3437,7 +3440,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3487,7 +3490,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3503,7 +3506,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3519,7 +3522,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -3535,7 +3538,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -3551,7 +3554,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -3583,7 +3586,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -3634,7 +3637,7 @@
       <c r="F73" s="5"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -3650,7 +3653,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3668,7 +3671,7 @@
       </c>
       <c r="F75" s="25"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3684,7 +3687,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3700,7 +3703,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -3716,7 +3719,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3781,7 +3784,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3797,7 +3800,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3813,7 +3816,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3829,7 +3832,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3863,7 +3866,7 @@
       </c>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3879,7 +3882,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -3947,7 +3950,7 @@
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -3965,7 +3968,7 @@
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -3983,7 +3986,7 @@
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -4015,7 +4018,7 @@
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -4033,7 +4036,7 @@
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -4099,7 +4102,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -4272,7 +4275,7 @@
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -4291,7 +4294,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -4309,7 +4312,7 @@
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -4373,7 +4376,7 @@
       </c>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -4388,7 +4391,7 @@
       </c>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -4459,7 +4462,7 @@
       </c>
       <c r="G124" s="25"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -4474,7 +4477,7 @@
       </c>
       <c r="G125" s="25"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -4852,12 +4855,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -4866,7 +4869,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}"/>
+  <autoFilter ref="A1:G154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="total_pymnt"/>
+        <filter val="total_pymnt_inv"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:C101">
     <sortCondition ref="B2:B101"/>
   </sortState>
@@ -4884,14 +4894,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>219</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
@@ -4910,7 +4920,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -4921,7 +4931,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
@@ -4932,7 +4942,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>190</v>
       </c>
@@ -4943,7 +4953,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>285</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -4961,7 +4971,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -4970,7 +4980,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
@@ -4980,7 +4990,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
@@ -4991,7 +5001,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
@@ -5002,7 +5012,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
@@ -5012,7 +5022,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
@@ -5022,7 +5032,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>106</v>
       </c>
@@ -5033,7 +5043,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
@@ -5044,7 +5054,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>196</v>
       </c>
@@ -5055,7 +5065,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -5066,7 +5076,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -5077,7 +5087,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -5086,7 +5096,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
@@ -5097,7 +5107,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
@@ -5107,7 +5117,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>239</v>
       </c>
@@ -5118,7 +5128,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
@@ -5129,7 +5139,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -5140,7 +5150,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
@@ -5151,7 +5161,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>173</v>
       </c>
@@ -5162,7 +5172,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
@@ -5173,7 +5183,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
@@ -5184,7 +5194,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
@@ -5195,7 +5205,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -5206,7 +5216,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>179</v>
       </c>
@@ -5217,7 +5227,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
@@ -5227,7 +5237,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>277</v>
       </c>
@@ -5237,7 +5247,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -5248,7 +5258,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
@@ -5259,7 +5269,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>287</v>
       </c>
@@ -5270,7 +5280,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>289</v>
       </c>
@@ -5281,7 +5291,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>201</v>
       </c>
@@ -5292,7 +5302,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +5313,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -5314,7 +5324,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5324,7 +5334,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -5334,7 +5344,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
@@ -5344,7 +5354,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>283</v>
       </c>
@@ -5354,7 +5364,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
@@ -5364,7 +5374,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>124</v>
       </c>
@@ -5375,7 +5385,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
@@ -5385,7 +5395,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
@@ -5395,7 +5405,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>208</v>
       </c>
@@ -5405,7 +5415,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
@@ -5415,7 +5425,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -5425,7 +5435,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
@@ -5435,7 +5445,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>273</v>
       </c>
@@ -5444,7 +5454,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
@@ -5453,7 +5463,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>203</v>
       </c>
@@ -5462,7 +5472,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>204</v>
       </c>
@@ -5471,7 +5481,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>207</v>
       </c>
@@ -5480,7 +5490,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>205</v>
       </c>
@@ -5489,7 +5499,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
@@ -5498,7 +5508,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
@@ -5507,7 +5517,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -5516,7 +5526,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
@@ -5525,7 +5535,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -5534,7 +5544,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>115</v>
       </c>
@@ -5543,7 +5553,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -5552,7 +5562,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>127</v>
       </c>
@@ -5561,7 +5571,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
@@ -5570,7 +5580,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
@@ -5579,7 +5589,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
@@ -5588,7 +5598,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -5598,7 +5608,7 @@
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -5607,7 +5617,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
@@ -5616,7 +5626,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>110</v>
       </c>
@@ -5626,7 +5636,7 @@
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>266</v>
       </c>
@@ -5636,7 +5646,7 @@
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>269</v>
       </c>
@@ -5646,7 +5656,7 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>271</v>
       </c>
@@ -5655,7 +5665,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>335</v>
       </c>
@@ -5664,7 +5674,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>279</v>
       </c>
@@ -5674,7 +5684,7 @@
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>281</v>
       </c>
@@ -5684,7 +5694,7 @@
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
@@ -5693,7 +5703,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -5703,7 +5713,7 @@
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
@@ -5713,7 +5723,7 @@
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>103</v>
       </c>
@@ -5722,7 +5732,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
@@ -5731,7 +5741,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
@@ -5740,7 +5750,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>189</v>
       </c>
@@ -5749,7 +5759,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>188</v>
       </c>
@@ -5758,7 +5768,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>212</v>
       </c>
@@ -5767,7 +5777,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
@@ -5776,7 +5786,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>174</v>
       </c>
@@ -5785,7 +5795,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>176</v>
       </c>
@@ -5795,7 +5805,7 @@
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
@@ -5804,7 +5814,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5824,7 @@
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +5832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>113</v>
       </c>
@@ -5838,7 +5848,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>112</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>275</v>
       </c>
@@ -5854,7 +5864,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>293</v>
       </c>
@@ -5862,7 +5872,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>100</v>
       </c>
@@ -5870,7 +5880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>217</v>
       </c>
@@ -5878,7 +5888,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>215</v>
       </c>
@@ -5886,7 +5896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
@@ -5894,7 +5904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>214</v>
       </c>
@@ -5902,7 +5912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
@@ -5910,7 +5920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>257</v>
       </c>
@@ -5918,7 +5928,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>247</v>
       </c>
@@ -5926,7 +5936,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>310</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>312</v>
       </c>
@@ -5942,7 +5952,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>314</v>
       </c>
@@ -5950,7 +5960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>316</v>
       </c>
@@ -5958,7 +5968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>318</v>
       </c>
@@ -5966,7 +5976,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>320</v>
       </c>
@@ -5974,7 +5984,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>322</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>324</v>
       </c>
@@ -5990,7 +6000,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>336</v>
       </c>
@@ -5998,7 +6008,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>327</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>329</v>
       </c>
@@ -6014,7 +6024,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>331</v>
       </c>
@@ -6022,7 +6032,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>333</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>362</v>
       </c>
@@ -6038,7 +6048,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
         <v>168</v>
       </c>
@@ -6065,13 +6075,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="225.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="225.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
@@ -6079,7 +6089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
@@ -6103,7 +6113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -6111,7 +6121,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>231</v>
       </c>
@@ -6119,7 +6129,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>245</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>232</v>
       </c>
@@ -6135,7 +6145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>233</v>
       </c>
@@ -6143,7 +6153,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>234</v>
       </c>
@@ -6151,11 +6161,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
     </row>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpers\Documents\Developer\S109\Final-Project\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA566BEF-1E3B-4453-B12A-D4A74BDBD14B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3208B57-9851-4465-918D-88EB402CFF95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="465" windowWidth="33525" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,7 +2341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2392,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2687,21 +2687,20 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -3779,7 +3778,7 @@
         <v>89</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -3795,7 +3794,7 @@
         <v>90</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -4175,7 +4174,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -4393,17 +4392,22 @@
     </row>
     <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>118</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>385</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F120" s="25"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
@@ -4872,10 +4876,12 @@
   <autoFilter ref="A1:G154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}">
     <filterColumn colId="1">
       <filters>
-        <filter val="total_pymnt"/>
-        <filter val="total_pymnt_inv"/>
+        <filter val="acc_open_past_24mths"/>
       </filters>
     </filterColumn>
+    <sortState ref="A20:G120">
+      <sortCondition descending="1" ref="B1:B154"/>
+    </sortState>
   </autoFilter>
   <sortState ref="B2:C101">
     <sortCondition ref="B2:B101"/>

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpers\Documents\Developer\S109\Final-Project\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3208B57-9851-4465-918D-88EB402CFF95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2B40D-98A6-49CB-9BE2-5C9064C54121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="465" windowWidth="33525" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2392,7 +2392,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>151</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -4876,7 +4876,7 @@
   <autoFilter ref="A1:G154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}">
     <filterColumn colId="1">
       <filters>
-        <filter val="acc_open_past_24mths"/>
+        <filter val="num_sats"/>
       </filters>
     </filterColumn>
     <sortState ref="A20:G120">

--- a/Source Data/LCDataDictionary.xlsx
+++ b/Source Data/LCDataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpers\Documents\Developer\S109\Final-Project\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2B40D-98A6-49CB-9BE2-5C9064C54121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA0745-4CBE-472F-B70C-FC82A2BB53F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="465" windowWidth="33525" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2334,14 +2334,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2373,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>118</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="F20" s="6"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="F52" s="25"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="F53" s="25"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="F54" s="25"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="F73" s="5"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="F75" s="25"/>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>18</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="F120" s="25"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="G124" s="25"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="G125" s="25"/>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -4859,12 +4859,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -4874,11 +4874,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G154" xr:uid="{FF0C4084-7749-4411-8AD0-D248E5AF6185}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="num_sats"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A20:G120">
       <sortCondition descending="1" ref="B1:B154"/>
     </sortState>
